--- a/verification/13.shizhangyi.xlsx
+++ b/verification/13.shizhangyi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangtiansheng/Documents/GitHub/xinhua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangtiansheng/Documents/GitHub/xinhua/verification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EC85C-8943-DE49-855E-48AAF074E17A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536563A1-4693-3B42-84D6-882F91065430}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6580" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{F93EF51D-3B39-9D4A-B996-840B0624D1E0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>web_site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,13 +74,67 @@
   <si>
     <t>核验日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沧州市政府</t>
+  </si>
+  <si>
+    <t>政府门户网站-政策文件</t>
+  </si>
+  <si>
+    <t>http://www.cangzhou.gov.cn/zwbz/zwdt/cxwj/index.shtml</t>
+  </si>
+  <si>
+    <t>沧州市发改委</t>
+  </si>
+  <si>
+    <t>发改委-政策法规</t>
+  </si>
+  <si>
+    <t>http://www.fgw.cangzhou.gov.cn/czfgw/zcfg/</t>
+  </si>
+  <si>
+    <t>廊坊市政府</t>
+  </si>
+  <si>
+    <t>http://zfxxgk.lf.gov.cn/index.do?templet=list_gknr_new&amp;deptid=39501&amp;CID=249</t>
+  </si>
+  <si>
+    <t>廊坊市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.lf.gov.cn/Category_58/Index.aspx</t>
+  </si>
+  <si>
+    <t>衡水市政府</t>
+  </si>
+  <si>
+    <t>http://xxgk.hengshui.gov.cn/hssxxgk/sy/zfwj/index.html</t>
+  </si>
+  <si>
+    <t>衡水市发改委</t>
+  </si>
+  <si>
+    <t>http://xxgk.hengshui.gov.cn/eportal/ui?pageId=792337</t>
+  </si>
+  <si>
+    <t>太原市政府</t>
+  </si>
+  <si>
+    <t>http://www.taiyuan.gov.cn/zfxxgk/szfxxgkml/fgwjjjd/szfwj/index.shtml?treeNode=11</t>
+  </si>
+  <si>
+    <t>太原市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.taiyuan.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +145,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -114,21 +177,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,11 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0204A7A-0F64-3949-AB7D-A522D658028A}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -594,10 +664,108 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{90551E47-BD6D-B940-B906-201A09E96761}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{AE2C75C0-EEA8-8E4E-94E1-85029633E36D}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{782F6659-14A0-AD4D-9AC4-0BC57B71CD50}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{A10EC957-5C42-5448-8B13-EF389CA46F7B}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{59EDEE12-7D36-4F48-887D-143C165BEDBD}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{E158D37E-29B2-5644-89FE-42498E2398AB}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{8BE9A19A-7E71-F546-B5B9-0CB3C0E89660}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{28A6C3A0-D83C-4F4A-B70D-B714BA5615D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/verification/13.shizhangyi.xlsx
+++ b/verification/13.shizhangyi.xlsx
@@ -1,79 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangtiansheng/Documents/GitHub/xinhua/verification/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536563A1-4693-3B42-84D6-882F91065430}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{F93EF51D-3B39-9D4A-B996-840B0624D1E0}"/>
+    <workbookView windowWidth="22583" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+  <si>
+    <t>范采</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>配置日期</t>
+  </si>
   <si>
     <t>web_site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栏目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>web_site_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核验日期</t>
+  </si>
+  <si>
+    <t>网站数据量</t>
   </si>
   <si>
     <t>数据库数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站数据量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核验日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沧州市政府</t>
@@ -128,25 +101,161 @@
   </si>
   <si>
     <t>http://fgw.taiyuan.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml</t>
+  </si>
+  <si>
+    <t>南京市政府</t>
+  </si>
+  <si>
+    <t>http://www.nanjing.gov.cn/zdgk/index.html?id=400</t>
+  </si>
+  <si>
+    <t>南京市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.nanjing.gov.cn/njsfzhggwyh/</t>
+  </si>
+  <si>
+    <t>无锡市政府</t>
+  </si>
+  <si>
+    <t>http://www.wuxi.gov.cn/zfxxgk/szfxxgkml/index.shtml?url=/zfxxgk/szfxxgkml/fgwjjjd/index.shtml&amp;id=21696</t>
+  </si>
+  <si>
+    <t>无锡市发改委</t>
+  </si>
+  <si>
+    <t>http://dpc.wuxi.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml</t>
+  </si>
+  <si>
+    <t>徐州市政府</t>
+  </si>
+  <si>
+    <t>http://xxgk.xz.gov.cn/xxgkzml/xxgkml/xxgk_main_mulu.shtml?channel_id=5918c85d8fd348b9b4716273f063abef&amp;narrow=false</t>
+  </si>
+  <si>
+    <t>外链（江苏省人民政府），详情页是pdf</t>
+  </si>
+  <si>
+    <t>徐州市发改委</t>
+  </si>
+  <si>
+    <t>http://dpc.xz.gov.cn/fgw/cyzc/</t>
+  </si>
+  <si>
+    <t>常州市政府</t>
+  </si>
+  <si>
+    <t>http://www.changzhou.gov.cn/gova/wjk.php</t>
+  </si>
+  <si>
+    <t>常州市发改委</t>
+  </si>
+  <si>
+    <t>http://www.changzhou.gov.cn/gi_class/fgw#fgw_02</t>
+  </si>
+  <si>
+    <t>苏州市政府</t>
+  </si>
+  <si>
+    <t>http://www.suzhou.gov.cn/szsrmzf/zfxxgkzl/xxgkml.shtml</t>
+  </si>
+  <si>
+    <t>外链（江苏省人民政府）</t>
+  </si>
+  <si>
+    <t>苏州市发改委</t>
+  </si>
+  <si>
+    <t>http://fg.suzhou.gov.cn/szfgw/zcwj/common_list.shtml</t>
+  </si>
+  <si>
+    <t>南通市政府</t>
+  </si>
+  <si>
+    <t>http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html</t>
+  </si>
+  <si>
+    <t>南通市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.nantong.gov.cn/ntsfgw/zcwj/zcwj.html</t>
+  </si>
+  <si>
+    <t>连云港市政府</t>
+  </si>
+  <si>
+    <t>http://www.lyg.gov.cn/zglygzfmhwz/zfwj1/zfwj1.html</t>
+  </si>
+  <si>
+    <t>连云港市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.lyg.gov.cn/lygsfzhggwyh/zcwj/zcwj.html</t>
+  </si>
+  <si>
+    <t>淮安市政府</t>
+  </si>
+  <si>
+    <t>http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285</t>
+  </si>
+  <si>
+    <t>淮安市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.huaian.gov.cn/col/7009_826214/index.html</t>
+  </si>
+  <si>
+    <t>盐城市政府</t>
+  </si>
+  <si>
+    <t>http://www.yancheng.gov.cn/col/col2289/index.html?number=A00002A00004</t>
+  </si>
+  <si>
+    <t>盐城市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.yancheng.gov.cn/col/col2726/index.html</t>
+  </si>
+  <si>
+    <t>扬州市政府</t>
+  </si>
+  <si>
+    <t>http://www.yangzhou.gov.cn/cnyzfront/xxgk/zcwjk_search.jsp?type=KA</t>
+  </si>
+  <si>
+    <t>扬州市发改委</t>
+  </si>
+  <si>
+    <t>http://www.yangzhou.gov.cn/yangzhou/bmxxgk/xxgk_bm.shtml?columntcode=11321000014407063U&amp;channel_id=943053d47f2946a7a4f1850767a2a744&amp;columntitle=%E5%B8%82%E5%8F%91%E5%B1%95%E6%94%B9%E9%9D%A9%E5%A7%94</t>
+  </si>
+  <si>
+    <t>镇江市政府</t>
+  </si>
+  <si>
+    <t>http://xxgk.zhenjiang.gov.cn:8088/pub/root87/index2.htm?classInfoId=1267</t>
+  </si>
+  <si>
+    <t>镇江市发改委</t>
+  </si>
+  <si>
+    <t>http://fgw.zhenjiang.gov.cn/zcfg/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -155,20 +264,348 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,45 +613,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -228,56 +950,17 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="2" name="墨迹 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6C0AD9-47FF-0A43-8CAB-8D59A717378C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2401920" y="9239400"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="墨迹 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6C0AD9-47FF-0A43-8CAB-8D59A717378C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2393280" y="9230760"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:contentPart xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" r:id="rId1">
+      <xdr14:nvContentPartPr>
+        <xdr14:cNvPr id="2" name="墨迹 1"/>
+        <xdr14:cNvContentPartPr/>
+      </xdr14:nvContentPartPr>
+      <xdr14:nvPr/>
+      <xdr14:xfrm>
+        <a:off x="3865880" y="198120"/>
+        <a:ext cx="635" cy="0"/>
+      </xdr14:xfrm>
+    </xdr:contentPart>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -289,21 +972,22 @@
     <inkml:context xml:id="ctx0">
       <inkml:inkSource xml:id="inkSrc0">
         <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="X" type="integer" units="cm"/>
+          <inkml:channel name="Y" type="integer" units="cm"/>
+          <inkml:channel name="F" type="integer" max="1023" units="cm"/>
         </inkml:traceFormat>
         <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="X" name="resolution" value="28.3464566929134" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="28.3464566929134" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="2.84167" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-04T12:18:20.660"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-15T10:01:52"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#000000"/>
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
@@ -353,7 +1037,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -386,26 +1070,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -438,23 +1105,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,75 +1246,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0204A7A-0F64-3949-AB7D-A522D658028A}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="59.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="9.16666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8333333333333" style="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="4:6">
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -675,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="4:6">
       <c r="D3" t="s">
         <v>14</v>
       </c>
@@ -686,7 +1332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="4:6">
       <c r="D4" t="s">
         <v>17</v>
       </c>
@@ -697,7 +1343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="4:6">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -708,7 +1354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="4:6">
       <c r="D6" t="s">
         <v>21</v>
       </c>
@@ -719,7 +1365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="4:6">
       <c r="D7" t="s">
         <v>23</v>
       </c>
@@ -730,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="4:6">
       <c r="D8" t="s">
         <v>25</v>
       </c>
@@ -741,7 +1387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="4:6">
       <c r="D9" t="s">
         <v>27</v>
       </c>
@@ -752,20 +1398,290 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" ht="31.2" spans="4:6">
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="31.2" spans="4:6">
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="31.2" spans="4:10">
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="31.2" spans="4:6">
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" ht="31.2" spans="4:10">
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="31.2" spans="4:6">
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" ht="31.2" spans="4:6">
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" ht="31.2" spans="4:6">
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" ht="31.2" spans="4:6">
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" ht="31.2" spans="4:6">
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="62.4" spans="4:6">
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" ht="31.2" spans="4:6">
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{90551E47-BD6D-B940-B906-201A09E96761}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{AE2C75C0-EEA8-8E4E-94E1-85029633E36D}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{782F6659-14A0-AD4D-9AC4-0BC57B71CD50}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{A10EC957-5C42-5448-8B13-EF389CA46F7B}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{59EDEE12-7D36-4F48-887D-143C165BEDBD}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{E158D37E-29B2-5644-89FE-42498E2398AB}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{8BE9A19A-7E71-F546-B5B9-0CB3C0E89660}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{28A6C3A0-D83C-4F4A-B70D-B714BA5615D5}"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://www.cangzhou.gov.cn/zwbz/zwdt/cxwj/index.shtml"/>
+    <hyperlink ref="F3" r:id="rId3" display="http://www.fgw.cangzhou.gov.cn/czfgw/zcfg/"/>
+    <hyperlink ref="F4" r:id="rId4" display="http://zfxxgk.lf.gov.cn/index.do?templet=list_gknr_new&amp;deptid=39501&amp;CID=249"/>
+    <hyperlink ref="F5" r:id="rId5" display="http://fgw.lf.gov.cn/Category_58/Index.aspx"/>
+    <hyperlink ref="F6" r:id="rId6" display="http://xxgk.hengshui.gov.cn/hssxxgk/sy/zfwj/index.html"/>
+    <hyperlink ref="F7" r:id="rId7" display="http://xxgk.hengshui.gov.cn/eportal/ui?pageId=792337"/>
+    <hyperlink ref="F8" r:id="rId8" display="http://www.taiyuan.gov.cn/zfxxgk/szfxxgkml/fgwjjjd/szfwj/index.shtml?treeNode=11"/>
+    <hyperlink ref="F9" r:id="rId9" display="http://fgw.taiyuan.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml"/>
+    <hyperlink ref="F10" r:id="rId10" display="http://www.nanjing.gov.cn/zdgk/index.html?id=400" tooltip="http://www.nanjing.gov.cn/zdgk/index.html?id=400"/>
+    <hyperlink ref="F11" r:id="rId11" display="http://fgw.nanjing.gov.cn/njsfzhggwyh/" tooltip="http://fgw.nanjing.gov.cn/njsfzhggwyh/"/>
+    <hyperlink ref="F12" r:id="rId12" display="http://www.wuxi.gov.cn/zfxxgk/szfxxgkml/index.shtml?url=/zfxxgk/szfxxgkml/fgwjjjd/index.shtml&amp;id=21696" tooltip="http://www.wuxi.gov.cn/zfxxgk/szfxxgkml/index.shtml?url=/zfxxgk/szfxxgkml/fgwjjjd/index.shtml&amp;id=21696"/>
+    <hyperlink ref="F13" r:id="rId13" display="http://dpc.wuxi.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml" tooltip="http://dpc.wuxi.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml"/>
+    <hyperlink ref="F14" r:id="rId14" display="http://xxgk.xz.gov.cn/xxgkzml/xxgkml/xxgk_main_mulu.shtml?channel_id=5918c85d8fd348b9b4716273f063abef&amp;narrow=false" tooltip="http://xxgk.xz.gov.cn/xxgkzml/xxgkml/xxgk_main_mulu.shtml?channel_id=5918c85d8fd348b9b4716273f063abef&amp;narrow=false"/>
+    <hyperlink ref="F15" r:id="rId15" display="http://dpc.xz.gov.cn/fgw/cyzc/" tooltip="http://dpc.xz.gov.cn/fgw/cyzc/"/>
+    <hyperlink ref="F16" r:id="rId16" display="http://www.changzhou.gov.cn/gova/wjk.php" tooltip="http://www.changzhou.gov.cn/gova/wjk.php"/>
+    <hyperlink ref="F17" r:id="rId17" display="http://www.changzhou.gov.cn/gi_class/fgw#fgw_02"/>
+    <hyperlink ref="F18" r:id="rId18" display="http://www.suzhou.gov.cn/szsrmzf/zfxxgkzl/xxgkml.shtml" tooltip="http://www.suzhou.gov.cn/szsrmzf/zfxxgkzl/xxgkml.shtml"/>
+    <hyperlink ref="F19" r:id="rId19" display="http://fg.suzhou.gov.cn/szfgw/zcwj/common_list.shtml" tooltip="http://fg.suzhou.gov.cn/szfgw/zcwj/common_list.shtml"/>
+    <hyperlink ref="F20" r:id="rId20" display="http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html" tooltip="http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html"/>
+    <hyperlink ref="F21" r:id="rId21" display="http://fgw.nantong.gov.cn/ntsfgw/zcwj/zcwj.html" tooltip="http://fgw.nantong.gov.cn/ntsfgw/zcwj/zcwj.html"/>
+    <hyperlink ref="F22" r:id="rId22" display="http://www.lyg.gov.cn/zglygzfmhwz/zfwj1/zfwj1.html" tooltip="http://www.lyg.gov.cn/zglygzfmhwz/zfwj1/zfwj1.html"/>
+    <hyperlink ref="F23" r:id="rId23" display="http://fgw.lyg.gov.cn/lygsfzhggwyh/zcwj/zcwj.html" tooltip="http://fgw.lyg.gov.cn/lygsfzhggwyh/zcwj/zcwj.html"/>
+    <hyperlink ref="F24" r:id="rId24" display="http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285" tooltip="http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285"/>
+    <hyperlink ref="F25" r:id="rId25" display="http://fgw.huaian.gov.cn/col/7009_826214/index.html" tooltip="http://fgw.huaian.gov.cn/col/7009_826214/index.html"/>
+    <hyperlink ref="F26" r:id="rId26" display="http://www.yancheng.gov.cn/col/col2289/index.html?number=A00002A00004" tooltip="http://www.yancheng.gov.cn/col/col2289/index.html?number=A00002A00004"/>
+    <hyperlink ref="F27" r:id="rId27" display="http://fgw.yancheng.gov.cn/col/col2726/index.html" tooltip="http://fgw.yancheng.gov.cn/col/col2726/index.html"/>
+    <hyperlink ref="F28" r:id="rId28" display="http://www.yangzhou.gov.cn/cnyzfront/xxgk/zcwjk_search.jsp?type=KA" tooltip="http://www.yangzhou.gov.cn/cnyzfront/xxgk/zcwjk_search.jsp?type=KA"/>
+    <hyperlink ref="F29" r:id="rId29" display="http://www.yangzhou.gov.cn/yangzhou/bmxxgk/xxgk_bm.shtml?columntcode=11321000014407063U&amp;channel_id=943053d47f2946a7a4f1850767a2a744&amp;columntitle=%E5%B8%82%E5%8F%91%E5%B1%95%E6%94%B9%E9%9D%A9%E5%A7%94" tooltip="http://www.yangzhou.gov.cn/yangzhou/bmxxgk/xxgk_bm.shtml?columntcode=11321000014407063U&amp;channel_id=943053d47f2946a7a4f1850767a2a744&amp;columntitle=%E5%B8%82%E5%8F%91%E5%B1%95%E6%94%B9%E9%9D%A9%E5%A7%94"/>
+    <hyperlink ref="F30" r:id="rId30" display="http://xxgk.zhenjiang.gov.cn:8088/pub/root87/index2.htm?classInfoId=1267" tooltip="http://xxgk.zhenjiang.gov.cn:8088/pub/root87/index2.htm?classInfoId=1267"/>
+    <hyperlink ref="F31" r:id="rId31" display="http://fgw.zhenjiang.gov.cn/zcfg/" tooltip="http://fgw.zhenjiang.gov.cn/zcfg/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/verification/13.shizhangyi.xlsx
+++ b/verification/13.shizhangyi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22583" windowHeight="9720"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>范采</t>
   </si>
@@ -28,9 +28,6 @@
     <t>web_site</t>
   </si>
   <si>
-    <t>栏目</t>
-  </si>
-  <si>
     <t>web_site_url</t>
   </si>
   <si>
@@ -52,18 +49,12 @@
     <t>沧州市政府</t>
   </si>
   <si>
-    <t>政府门户网站-政策文件</t>
-  </si>
-  <si>
     <t>http://www.cangzhou.gov.cn/zwbz/zwdt/cxwj/index.shtml</t>
   </si>
   <si>
     <t>沧州市发改委</t>
   </si>
   <si>
-    <t>发改委-政策法规</t>
-  </si>
-  <si>
     <t>http://www.fgw.cangzhou.gov.cn/czfgw/zcfg/</t>
   </si>
   <si>
@@ -175,6 +166,9 @@
     <t>http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html</t>
   </si>
   <si>
+    <t>跑的很慢 但是没发现问题 重新跑中.</t>
+  </si>
+  <si>
     <t>南通市发改委</t>
   </si>
   <si>
@@ -197,6 +191,9 @@
   </si>
   <si>
     <t>http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285</t>
+  </si>
+  <si>
+    <t>js渲染跑的很慢</t>
   </si>
   <si>
     <t>淮安市发改委</t>
@@ -246,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -276,7 +273,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,127 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -420,187 +417,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,17 +611,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,6 +640,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,21 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -703,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +716,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +728,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,115 +746,115 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -940,13 +937,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>331820</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>332180</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -957,8 +954,8 @@
       </xdr14:nvContentPartPr>
       <xdr14:nvPr/>
       <xdr14:xfrm>
-        <a:off x="3865880" y="198120"/>
-        <a:ext cx="635" cy="0"/>
+        <a:off x="3534410" y="198120"/>
+        <a:ext cx="0" cy="0"/>
       </xdr14:xfrm>
     </xdr:contentPart>
     <xdr:clientData/>
@@ -982,7 +979,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="2.84167" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-07-15T10:01:52"/>
+      <inkml:timestamp xml:id="ts0" timeString="2020-07-15T18:28:49"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -1252,12 +1249,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1266,16 +1263,15 @@
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="9.16666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="59.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.16666666666667" customWidth="1"/>
-    <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8333333333333" style="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="72.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="9.16666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8333333333333" style="1"/>
+    <col min="10" max="10" width="19.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,390 +1290,303 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="4:5">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="4:6">
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
-      <c r="D3" t="s">
+    <row r="4" spans="4:5">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="4:6">
-      <c r="D4" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="4:6">
-      <c r="D5" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" ht="31.2" spans="4:6">
-      <c r="D10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
+    </row>
+    <row r="12" ht="31.2" spans="4:5">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="4:6">
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" ht="31.2" spans="4:6">
-      <c r="D12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
+    </row>
+    <row r="14" ht="31.2" spans="4:9">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="4:6">
-      <c r="D13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="I14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="31.2" spans="4:10">
-      <c r="D14" s="3" t="s">
+    <row r="15" spans="4:5">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="4:6">
-      <c r="D15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="s">
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" ht="31.2" spans="4:6">
-      <c r="D16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="I18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" ht="31.2" spans="4:10">
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="4:5">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J18" t="s">
+    </row>
+    <row r="20" spans="4:9">
+      <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="I20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="31.2" spans="4:6">
-      <c r="D20" s="3" t="s">
+    <row r="21" spans="4:5">
+      <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="3" t="s">
+    <row r="22" spans="4:5">
+      <c r="D22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="31.2" spans="4:6">
-      <c r="D22" s="3" t="s">
+    <row r="23" spans="4:5">
+      <c r="D23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="3" t="s">
+    <row r="24" spans="4:9">
+      <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" ht="31.2" spans="4:6">
-      <c r="D24" s="3" t="s">
+      <c r="I24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3" t="s">
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3" t="s">
+    </row>
+    <row r="26" ht="31.2" spans="4:5">
+      <c r="D26" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" ht="31.2" spans="4:6">
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3" t="s">
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" ht="31.2" spans="4:6">
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3" t="s">
+    </row>
+    <row r="29" ht="62.4" spans="4:5">
+      <c r="D29" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" ht="62.4" spans="4:6">
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3" t="s">
+    </row>
+    <row r="30" ht="31.2" spans="4:5">
+      <c r="D30" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" ht="31.2" spans="4:6">
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3" t="s">
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId2" display="http://www.cangzhou.gov.cn/zwbz/zwdt/cxwj/index.shtml"/>
-    <hyperlink ref="F3" r:id="rId3" display="http://www.fgw.cangzhou.gov.cn/czfgw/zcfg/"/>
-    <hyperlink ref="F4" r:id="rId4" display="http://zfxxgk.lf.gov.cn/index.do?templet=list_gknr_new&amp;deptid=39501&amp;CID=249"/>
-    <hyperlink ref="F5" r:id="rId5" display="http://fgw.lf.gov.cn/Category_58/Index.aspx"/>
-    <hyperlink ref="F6" r:id="rId6" display="http://xxgk.hengshui.gov.cn/hssxxgk/sy/zfwj/index.html"/>
-    <hyperlink ref="F7" r:id="rId7" display="http://xxgk.hengshui.gov.cn/eportal/ui?pageId=792337"/>
-    <hyperlink ref="F8" r:id="rId8" display="http://www.taiyuan.gov.cn/zfxxgk/szfxxgkml/fgwjjjd/szfwj/index.shtml?treeNode=11"/>
-    <hyperlink ref="F9" r:id="rId9" display="http://fgw.taiyuan.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml"/>
-    <hyperlink ref="F10" r:id="rId10" display="http://www.nanjing.gov.cn/zdgk/index.html?id=400" tooltip="http://www.nanjing.gov.cn/zdgk/index.html?id=400"/>
-    <hyperlink ref="F11" r:id="rId11" display="http://fgw.nanjing.gov.cn/njsfzhggwyh/" tooltip="http://fgw.nanjing.gov.cn/njsfzhggwyh/"/>
-    <hyperlink ref="F12" r:id="rId12" display="http://www.wuxi.gov.cn/zfxxgk/szfxxgkml/index.shtml?url=/zfxxgk/szfxxgkml/fgwjjjd/index.shtml&amp;id=21696" tooltip="http://www.wuxi.gov.cn/zfxxgk/szfxxgkml/index.shtml?url=/zfxxgk/szfxxgkml/fgwjjjd/index.shtml&amp;id=21696"/>
-    <hyperlink ref="F13" r:id="rId13" display="http://dpc.wuxi.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml" tooltip="http://dpc.wuxi.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml"/>
-    <hyperlink ref="F14" r:id="rId14" display="http://xxgk.xz.gov.cn/xxgkzml/xxgkml/xxgk_main_mulu.shtml?channel_id=5918c85d8fd348b9b4716273f063abef&amp;narrow=false" tooltip="http://xxgk.xz.gov.cn/xxgkzml/xxgkml/xxgk_main_mulu.shtml?channel_id=5918c85d8fd348b9b4716273f063abef&amp;narrow=false"/>
-    <hyperlink ref="F15" r:id="rId15" display="http://dpc.xz.gov.cn/fgw/cyzc/" tooltip="http://dpc.xz.gov.cn/fgw/cyzc/"/>
-    <hyperlink ref="F16" r:id="rId16" display="http://www.changzhou.gov.cn/gova/wjk.php" tooltip="http://www.changzhou.gov.cn/gova/wjk.php"/>
-    <hyperlink ref="F17" r:id="rId17" display="http://www.changzhou.gov.cn/gi_class/fgw#fgw_02"/>
-    <hyperlink ref="F18" r:id="rId18" display="http://www.suzhou.gov.cn/szsrmzf/zfxxgkzl/xxgkml.shtml" tooltip="http://www.suzhou.gov.cn/szsrmzf/zfxxgkzl/xxgkml.shtml"/>
-    <hyperlink ref="F19" r:id="rId19" display="http://fg.suzhou.gov.cn/szfgw/zcwj/common_list.shtml" tooltip="http://fg.suzhou.gov.cn/szfgw/zcwj/common_list.shtml"/>
-    <hyperlink ref="F20" r:id="rId20" display="http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html" tooltip="http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html"/>
-    <hyperlink ref="F21" r:id="rId21" display="http://fgw.nantong.gov.cn/ntsfgw/zcwj/zcwj.html" tooltip="http://fgw.nantong.gov.cn/ntsfgw/zcwj/zcwj.html"/>
-    <hyperlink ref="F22" r:id="rId22" display="http://www.lyg.gov.cn/zglygzfmhwz/zfwj1/zfwj1.html" tooltip="http://www.lyg.gov.cn/zglygzfmhwz/zfwj1/zfwj1.html"/>
-    <hyperlink ref="F23" r:id="rId23" display="http://fgw.lyg.gov.cn/lygsfzhggwyh/zcwj/zcwj.html" tooltip="http://fgw.lyg.gov.cn/lygsfzhggwyh/zcwj/zcwj.html"/>
-    <hyperlink ref="F24" r:id="rId24" display="http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285" tooltip="http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285"/>
-    <hyperlink ref="F25" r:id="rId25" display="http://fgw.huaian.gov.cn/col/7009_826214/index.html" tooltip="http://fgw.huaian.gov.cn/col/7009_826214/index.html"/>
-    <hyperlink ref="F26" r:id="rId26" display="http://www.yancheng.gov.cn/col/col2289/index.html?number=A00002A00004" tooltip="http://www.yancheng.gov.cn/col/col2289/index.html?number=A00002A00004"/>
-    <hyperlink ref="F27" r:id="rId27" display="http://fgw.yancheng.gov.cn/col/col2726/index.html" tooltip="http://fgw.yancheng.gov.cn/col/col2726/index.html"/>
-    <hyperlink ref="F28" r:id="rId28" display="http://www.yangzhou.gov.cn/cnyzfront/xxgk/zcwjk_search.jsp?type=KA" tooltip="http://www.yangzhou.gov.cn/cnyzfront/xxgk/zcwjk_search.jsp?type=KA"/>
-    <hyperlink ref="F29" r:id="rId29" display="http://www.yangzhou.gov.cn/yangzhou/bmxxgk/xxgk_bm.shtml?columntcode=11321000014407063U&amp;channel_id=943053d47f2946a7a4f1850767a2a744&amp;columntitle=%E5%B8%82%E5%8F%91%E5%B1%95%E6%94%B9%E9%9D%A9%E5%A7%94" tooltip="http://www.yangzhou.gov.cn/yangzhou/bmxxgk/xxgk_bm.shtml?columntcode=11321000014407063U&amp;channel_id=943053d47f2946a7a4f1850767a2a744&amp;columntitle=%E5%B8%82%E5%8F%91%E5%B1%95%E6%94%B9%E9%9D%A9%E5%A7%94"/>
-    <hyperlink ref="F30" r:id="rId30" display="http://xxgk.zhenjiang.gov.cn:8088/pub/root87/index2.htm?classInfoId=1267" tooltip="http://xxgk.zhenjiang.gov.cn:8088/pub/root87/index2.htm?classInfoId=1267"/>
-    <hyperlink ref="F31" r:id="rId31" display="http://fgw.zhenjiang.gov.cn/zcfg/" tooltip="http://fgw.zhenjiang.gov.cn/zcfg/"/>
+    <hyperlink ref="E2" r:id="rId2" display="http://www.cangzhou.gov.cn/zwbz/zwdt/cxwj/index.shtml"/>
+    <hyperlink ref="E3" r:id="rId3" display="http://www.fgw.cangzhou.gov.cn/czfgw/zcfg/"/>
+    <hyperlink ref="E4" r:id="rId4" display="http://zfxxgk.lf.gov.cn/index.do?templet=list_gknr_new&amp;deptid=39501&amp;CID=249"/>
+    <hyperlink ref="E5" r:id="rId5" display="http://fgw.lf.gov.cn/Category_58/Index.aspx"/>
+    <hyperlink ref="E6" r:id="rId6" display="http://xxgk.hengshui.gov.cn/hssxxgk/sy/zfwj/index.html"/>
+    <hyperlink ref="E7" r:id="rId7" display="http://xxgk.hengshui.gov.cn/eportal/ui?pageId=792337"/>
+    <hyperlink ref="E8" r:id="rId8" display="http://www.taiyuan.gov.cn/zfxxgk/szfxxgkml/fgwjjjd/szfwj/index.shtml?treeNode=11"/>
+    <hyperlink ref="E9" r:id="rId9" display="http://fgw.taiyuan.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml"/>
+    <hyperlink ref="E10" r:id="rId10" display="http://www.nanjing.gov.cn/zdgk/index.html?id=400" tooltip="http://www.nanjing.gov.cn/zdgk/index.html?id=400"/>
+    <hyperlink ref="E11" r:id="rId11" display="http://fgw.nanjing.gov.cn/njsfzhggwyh/" tooltip="http://fgw.nanjing.gov.cn/njsfzhggwyh/"/>
+    <hyperlink ref="E12" r:id="rId12" display="http://www.wuxi.gov.cn/zfxxgk/szfxxgkml/index.shtml?url=/zfxxgk/szfxxgkml/fgwjjjd/index.shtml&amp;id=21696" tooltip="http://www.wuxi.gov.cn/zfxxgk/szfxxgkml/index.shtml?url=/zfxxgk/szfxxgkml/fgwjjjd/index.shtml&amp;id=21696"/>
+    <hyperlink ref="E13" r:id="rId13" display="http://dpc.wuxi.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml" tooltip="http://dpc.wuxi.gov.cn/zfxxgk/xxgkml/fgwjjjd/index.shtml"/>
+    <hyperlink ref="E14" r:id="rId14" display="http://xxgk.xz.gov.cn/xxgkzml/xxgkml/xxgk_main_mulu.shtml?channel_id=5918c85d8fd348b9b4716273f063abef&amp;narrow=false" tooltip="http://xxgk.xz.gov.cn/xxgkzml/xxgkml/xxgk_main_mulu.shtml?channel_id=5918c85d8fd348b9b4716273f063abef&amp;narrow=false"/>
+    <hyperlink ref="E15" r:id="rId15" display="http://dpc.xz.gov.cn/fgw/cyzc/" tooltip="http://dpc.xz.gov.cn/fgw/cyzc/"/>
+    <hyperlink ref="E16" r:id="rId16" display="http://www.changzhou.gov.cn/gova/wjk.php" tooltip="http://www.changzhou.gov.cn/gova/wjk.php"/>
+    <hyperlink ref="E17" r:id="rId17" display="http://www.changzhou.gov.cn/gi_class/fgw#fgw_02"/>
+    <hyperlink ref="E18" r:id="rId18" display="http://www.suzhou.gov.cn/szsrmzf/zfxxgkzl/xxgkml.shtml" tooltip="http://www.suzhou.gov.cn/szsrmzf/zfxxgkzl/xxgkml.shtml"/>
+    <hyperlink ref="E19" r:id="rId19" display="http://fg.suzhou.gov.cn/szfgw/zcwj/common_list.shtml" tooltip="http://fg.suzhou.gov.cn/szfgw/zcwj/common_list.shtml"/>
+    <hyperlink ref="E20" r:id="rId20" display="http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html" tooltip="http://www.nantong.gov.cn/ntsrmzf/szfwj/szfwj.html"/>
+    <hyperlink ref="E21" r:id="rId21" display="http://fgw.nantong.gov.cn/ntsfgw/zcwj/zcwj.html" tooltip="http://fgw.nantong.gov.cn/ntsfgw/zcwj/zcwj.html"/>
+    <hyperlink ref="E22" r:id="rId22" display="http://www.lyg.gov.cn/zglygzfmhwz/zfwj1/zfwj1.html" tooltip="http://www.lyg.gov.cn/zglygzfmhwz/zfwj1/zfwj1.html"/>
+    <hyperlink ref="E23" r:id="rId23" display="http://fgw.lyg.gov.cn/lygsfzhggwyh/zcwj/zcwj.html" tooltip="http://fgw.lyg.gov.cn/lygsfzhggwyh/zcwj/zcwj.html"/>
+    <hyperlink ref="E24" r:id="rId24" display="http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285" tooltip="http://cms.huaian.gov.cn/cmsweb/zwgk/sj/index.html?topic=5285"/>
+    <hyperlink ref="E25" r:id="rId25" display="http://fgw.huaian.gov.cn/col/7009_826214/index.html" tooltip="http://fgw.huaian.gov.cn/col/7009_826214/index.html"/>
+    <hyperlink ref="E26" r:id="rId26" display="http://www.yancheng.gov.cn/col/col2289/index.html?number=A00002A00004" tooltip="http://www.yancheng.gov.cn/col/col2289/index.html?number=A00002A00004"/>
+    <hyperlink ref="E27" r:id="rId27" display="http://fgw.yancheng.gov.cn/col/col2726/index.html" tooltip="http://fgw.yancheng.gov.cn/col/col2726/index.html"/>
+    <hyperlink ref="E28" r:id="rId28" display="http://www.yangzhou.gov.cn/cnyzfront/xxgk/zcwjk_search.jsp?type=KA" tooltip="http://www.yangzhou.gov.cn/cnyzfront/xxgk/zcwjk_search.jsp?type=KA"/>
+    <hyperlink ref="E29" r:id="rId29" display="http://www.yangzhou.gov.cn/yangzhou/bmxxgk/xxgk_bm.shtml?columntcode=11321000014407063U&amp;channel_id=943053d47f2946a7a4f1850767a2a744&amp;columntitle=%E5%B8%82%E5%8F%91%E5%B1%95%E6%94%B9%E9%9D%A9%E5%A7%94" tooltip="http://www.yangzhou.gov.cn/yangzhou/bmxxgk/xxgk_bm.shtml?columntcode=11321000014407063U&amp;channel_id=943053d47f2946a7a4f1850767a2a744&amp;columntitle=%E5%B8%82%E5%8F%91%E5%B1%95%E6%94%B9%E9%9D%A9%E5%A7%94"/>
+    <hyperlink ref="E30" r:id="rId30" display="http://xxgk.zhenjiang.gov.cn:8088/pub/root87/index2.htm?classInfoId=1267" tooltip="http://xxgk.zhenjiang.gov.cn:8088/pub/root87/index2.htm?classInfoId=1267"/>
+    <hyperlink ref="E31" r:id="rId31" display="http://fgw.zhenjiang.gov.cn/zcfg/" tooltip="http://fgw.zhenjiang.gov.cn/zcfg/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
